--- a/ios/flow-ios.xlsx
+++ b/ios/flow-ios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/WorkDocs/mine/2020/05/maxopus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6088D14-F3B1-F942-B637-CD4FCACB4A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B3A5A5-0B0F-4549-8A3F-7A4D07F5193B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="-4720" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="flow" sheetId="4" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Amazon Pay認証</t>
   </si>
   <si>
-    <t>受注情報の取得</t>
-  </si>
-  <si>
     <t>を指定して、自動的にClick。</t>
   </si>
   <si>
@@ -155,12 +152,15 @@
   <si>
     <t>https://localhost:8443/thanks?secureWebviewSessionId={id}</t>
   </si>
+  <si>
+    <t>secureWebviewSessionの取得</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4092,16 +4092,16 @@
   <dimension ref="B1:AV72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+      <selection activeCell="AP61" sqref="AP61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="17" thickBot="1"/>
-    <row r="2" spans="2:48">
+    <row r="1" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -4150,7 +4150,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="2:48">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -4199,7 +4199,7 @@
       <c r="AU3" s="5"/>
       <c r="AV3" s="6"/>
     </row>
-    <row r="4" spans="2:48">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="AU4" s="5"/>
       <c r="AV4" s="6"/>
     </row>
-    <row r="5" spans="2:48">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="AU5" s="5"/>
       <c r="AV5" s="6"/>
     </row>
-    <row r="6" spans="2:48">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="AU6" s="5"/>
       <c r="AV6" s="6"/>
     </row>
-    <row r="7" spans="2:48">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="AU7" s="5"/>
       <c r="AV7" s="6"/>
     </row>
-    <row r="8" spans="2:48">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="6"/>
     </row>
-    <row r="9" spans="2:48">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="AU9" s="5"/>
       <c r="AV9" s="6"/>
     </row>
-    <row r="10" spans="2:48">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
@@ -4552,7 +4552,7 @@
       <c r="AU10" s="5"/>
       <c r="AV10" s="6"/>
     </row>
-    <row r="11" spans="2:48">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>5</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="AU11" s="5"/>
       <c r="AV11" s="6"/>
     </row>
-    <row r="12" spans="2:48">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
@@ -4654,7 +4654,7 @@
       <c r="AU12" s="5"/>
       <c r="AV12" s="6"/>
     </row>
-    <row r="13" spans="2:48">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="AU13" s="5"/>
       <c r="AV13" s="6"/>
     </row>
-    <row r="14" spans="2:48" ht="17" thickBot="1">
+    <row r="14" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -4754,7 +4754,7 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="11"/>
     </row>
-    <row r="15" spans="2:48">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -4803,7 +4803,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="2:48">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="AU16" s="5"/>
       <c r="AV16" s="6"/>
     </row>
-    <row r="17" spans="2:48">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="AU17" s="5"/>
       <c r="AV17" s="6"/>
     </row>
-    <row r="18" spans="2:48">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="AU18" s="5"/>
       <c r="AV18" s="6"/>
     </row>
-    <row r="19" spans="2:48">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="AU19" s="5"/>
       <c r="AV19" s="6"/>
     </row>
-    <row r="20" spans="2:48">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>15</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="6"/>
     </row>
-    <row r="21" spans="2:48">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="AU21" s="5"/>
       <c r="AV21" s="6"/>
     </row>
-    <row r="22" spans="2:48">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="AU22" s="5"/>
       <c r="AV22" s="6"/>
     </row>
-    <row r="23" spans="2:48">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
@@ -5206,7 +5206,7 @@
       <c r="AU23" s="5"/>
       <c r="AV23" s="6"/>
     </row>
-    <row r="24" spans="2:48">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
@@ -5254,7 +5254,7 @@
       <c r="AU24" s="5"/>
       <c r="AV24" s="6"/>
     </row>
-    <row r="25" spans="2:48">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
@@ -5303,7 +5303,7 @@
       <c r="AU25" s="5"/>
       <c r="AV25" s="6"/>
     </row>
-    <row r="26" spans="2:48">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
@@ -5352,7 +5352,7 @@
       <c r="AU26" s="5"/>
       <c r="AV26" s="6"/>
     </row>
-    <row r="27" spans="2:48">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
@@ -5401,7 +5401,7 @@
       <c r="AU27" s="5"/>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" spans="2:48">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
@@ -5450,7 +5450,7 @@
       <c r="AU28" s="5"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="2:48">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
@@ -5499,7 +5499,7 @@
       <c r="AU29" s="5"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" spans="2:48">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
@@ -5548,7 +5548,7 @@
       <c r="AU30" s="5"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="2:48">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
@@ -5596,7 +5596,7 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="2:48">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
@@ -5645,7 +5645,7 @@
       <c r="AU32" s="5"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="2:48">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -5694,7 +5694,7 @@
       <c r="AU33" s="5"/>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" spans="2:48">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -5743,7 +5743,7 @@
       <c r="AU34" s="5"/>
       <c r="AV34" s="6"/>
     </row>
-    <row r="35" spans="2:48">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
@@ -5792,7 +5792,7 @@
       <c r="AU35" s="5"/>
       <c r="AV35" s="6"/>
     </row>
-    <row r="36" spans="2:48">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
@@ -5841,7 +5841,7 @@
       <c r="AU36" s="5"/>
       <c r="AV36" s="6"/>
     </row>
-    <row r="37" spans="2:48">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
@@ -5890,7 +5890,7 @@
       <c r="AU37" s="5"/>
       <c r="AV37" s="6"/>
     </row>
-    <row r="38" spans="2:48">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
@@ -5939,7 +5939,7 @@
       <c r="AU38" s="5"/>
       <c r="AV38" s="6"/>
     </row>
-    <row r="39" spans="2:48">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
       <c r="D39" s="5"/>
@@ -5988,7 +5988,7 @@
       <c r="AU39" s="5"/>
       <c r="AV39" s="6"/>
     </row>
-    <row r="40" spans="2:48">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="7"/>
       <c r="D40" s="5"/>
@@ -6037,7 +6037,7 @@
       <c r="AU40" s="5"/>
       <c r="AV40" s="6"/>
     </row>
-    <row r="41" spans="2:48">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
@@ -6086,7 +6086,7 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="6"/>
     </row>
-    <row r="42" spans="2:48">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
@@ -6135,7 +6135,7 @@
       <c r="AU42" s="5"/>
       <c r="AV42" s="6"/>
     </row>
-    <row r="43" spans="2:48">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
       <c r="D43" s="5"/>
@@ -6184,11 +6184,11 @@
       <c r="AU43" s="5"/>
       <c r="AV43" s="6"/>
     </row>
-    <row r="44" spans="2:48">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
       <c r="C44" s="7"/>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -6235,7 +6235,7 @@
       <c r="AU44" s="5"/>
       <c r="AV44" s="6"/>
     </row>
-    <row r="45" spans="2:48">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
       <c r="D45" t="s">
@@ -6286,7 +6286,7 @@
       <c r="AU45" s="5"/>
       <c r="AV45" s="6"/>
     </row>
-    <row r="46" spans="2:48">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
       <c r="E46" s="5"/>
@@ -6334,7 +6334,7 @@
       <c r="AU46" s="5"/>
       <c r="AV46" s="6"/>
     </row>
-    <row r="47" spans="2:48">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
       <c r="E47" s="5"/>
@@ -6382,7 +6382,7 @@
       <c r="AU47" s="5"/>
       <c r="AV47" s="6"/>
     </row>
-    <row r="48" spans="2:48" ht="17" thickBot="1">
+    <row r="48" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -6394,7 +6394,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -6435,7 +6435,7 @@
       <c r="AU48" s="10"/>
       <c r="AV48" s="11"/>
     </row>
-    <row r="49" spans="2:48">
+    <row r="49" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
@@ -6488,7 +6488,7 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="4"/>
     </row>
-    <row r="50" spans="2:48">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
         <v>15</v>
       </c>
@@ -6509,7 +6509,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -6539,7 +6539,7 @@
       <c r="AM50" s="5"/>
       <c r="AN50" s="5"/>
       <c r="AO50" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5"/>
@@ -6549,7 +6549,7 @@
       <c r="AU50" s="5"/>
       <c r="AV50" s="6"/>
     </row>
-    <row r="51" spans="2:48">
+    <row r="51" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
         <v>9</v>
       </c>
@@ -6570,13 +6570,13 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
@@ -6608,7 +6608,7 @@
       <c r="AU51" s="5"/>
       <c r="AV51" s="6"/>
     </row>
-    <row r="52" spans="2:48">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
         <v>11</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="AU52" s="5"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="2:48">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -6712,7 +6712,7 @@
       <c r="AU53" s="5"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" spans="2:48">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B54" s="15" t="s">
         <v>9</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -6765,7 +6765,7 @@
       <c r="AU54" s="5"/>
       <c r="AV54" s="6"/>
     </row>
-    <row r="55" spans="2:48">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>11</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -6785,12 +6785,12 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -6822,7 +6822,7 @@
       <c r="AU55" s="5"/>
       <c r="AV55" s="6"/>
     </row>
-    <row r="56" spans="2:48">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="7"/>
       <c r="D56" s="5"/>
@@ -6831,7 +6831,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -6840,12 +6840,12 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -6877,7 +6877,7 @@
       <c r="AU56" s="5"/>
       <c r="AV56" s="6"/>
     </row>
-    <row r="57" spans="2:48">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
       <c r="D57" s="5"/>
@@ -6886,7 +6886,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -6895,7 +6895,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -6930,7 +6930,7 @@
       <c r="AU57" s="5"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="2:48">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
@@ -6979,7 +6979,7 @@
       <c r="AU58" s="5"/>
       <c r="AV58" s="6"/>
     </row>
-    <row r="59" spans="2:48">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="7"/>
       <c r="D59" s="5"/>
@@ -7002,7 +7002,7 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
@@ -7014,7 +7014,7 @@
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
@@ -7036,7 +7036,7 @@
       <c r="AU59" s="17"/>
       <c r="AV59" s="6"/>
     </row>
-    <row r="60" spans="2:48">
+    <row r="60" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="7"/>
       <c r="D60" s="5"/>
@@ -7081,7 +7081,7 @@
       <c r="AN60" s="5"/>
       <c r="AO60" s="5"/>
       <c r="AP60" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AQ60" s="5"/>
       <c r="AR60" s="5"/>
@@ -7090,7 +7090,7 @@
       <c r="AU60" s="5"/>
       <c r="AV60" s="6"/>
     </row>
-    <row r="61" spans="2:48">
+    <row r="61" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="7"/>
       <c r="D61" s="5"/>
@@ -7141,7 +7141,7 @@
       <c r="AU61" s="5"/>
       <c r="AV61" s="6"/>
     </row>
-    <row r="62" spans="2:48">
+    <row r="62" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="7"/>
       <c r="D62" s="5"/>
@@ -7192,7 +7192,7 @@
       <c r="AU62" s="5"/>
       <c r="AV62" s="6"/>
     </row>
-    <row r="63" spans="2:48">
+    <row r="63" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="7"/>
       <c r="D63" s="5"/>
@@ -7241,7 +7241,7 @@
       <c r="AU63" s="5"/>
       <c r="AV63" s="6"/>
     </row>
-    <row r="64" spans="2:48">
+    <row r="64" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="7"/>
       <c r="D64" s="5"/>
@@ -7290,7 +7290,7 @@
       <c r="AU64" s="5"/>
       <c r="AV64" s="6"/>
     </row>
-    <row r="65" spans="2:48">
+    <row r="65" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="7"/>
       <c r="D65" s="5"/>
@@ -7339,7 +7339,7 @@
       <c r="AU65" s="5"/>
       <c r="AV65" s="6"/>
     </row>
-    <row r="66" spans="2:48">
+    <row r="66" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
       <c r="C66" s="7"/>
       <c r="D66" s="5"/>
@@ -7388,7 +7388,7 @@
       <c r="AU66" s="5"/>
       <c r="AV66" s="6"/>
     </row>
-    <row r="67" spans="2:48">
+    <row r="67" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
       <c r="C67" s="7"/>
       <c r="D67" s="5"/>
@@ -7437,7 +7437,7 @@
       <c r="AU67" s="5"/>
       <c r="AV67" s="6"/>
     </row>
-    <row r="68" spans="2:48">
+    <row r="68" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
       <c r="C68" s="7"/>
       <c r="D68" s="5"/>
@@ -7486,7 +7486,7 @@
       <c r="AU68" s="5"/>
       <c r="AV68" s="6"/>
     </row>
-    <row r="69" spans="2:48">
+    <row r="69" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
       <c r="C69" s="7"/>
       <c r="D69" s="5"/>
@@ -7535,7 +7535,7 @@
       <c r="AU69" s="5"/>
       <c r="AV69" s="6"/>
     </row>
-    <row r="70" spans="2:48">
+    <row r="70" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
       <c r="C70" s="7"/>
       <c r="D70" s="5"/>
@@ -7584,7 +7584,7 @@
       <c r="AU70" s="5"/>
       <c r="AV70" s="6"/>
     </row>
-    <row r="71" spans="2:48">
+    <row r="71" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
       <c r="C71" s="7"/>
       <c r="D71" s="5"/>
@@ -7633,7 +7633,7 @@
       <c r="AU71" s="5"/>
       <c r="AV71" s="6"/>
     </row>
-    <row r="72" spans="2:48" ht="17" thickBot="1">
+    <row r="72" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="16"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
